--- a/hzero-resource/init-data/hzero-platform/hzero_platform/hzero-platform-config.xlsx
+++ b/hzero-resource/init-data/hzero-platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hzero-DataInit\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero-open\github\hzero\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363C98F-FA81-4475-891D-1C982C10B3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9387F1AE-FE4F-4087-AEA4-FDD050161283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -2080,9 +2080,6 @@
     <t>HIAM.INDEX_URL</t>
   </si>
   <si>
-    <t>http://hzeronf.saas.hand-china.com/</t>
-  </si>
-  <si>
     <t>iam</t>
   </si>
   <si>
@@ -2111,9 +2108,6 @@
   </si>
   <si>
     <t>HOTH.LOGIN_SUCCESS_URL</t>
-  </si>
-  <si>
-    <t>http://hzeronf.saas.hand-china.com</t>
   </si>
   <si>
     <t>HOTH.SHOW_LANGUAGE</t>
@@ -2139,6 +2133,9 @@
   <si>
     <t>WATERMARK</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://front.hzero.org</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2482,9 +2479,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2499,31 +2495,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2538,22 +2533,22 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2902,155 +2897,153 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.1015625" customWidth="1"/>
+    <col min="4" max="4" width="35.3125" customWidth="1"/>
+    <col min="5" max="5" width="38.5234375" customWidth="1"/>
+    <col min="6" max="6" width="23.41796875" customWidth="1"/>
+    <col min="7" max="7" width="21.5234375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5234375" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1015625" customWidth="1"/>
+    <col min="12" max="12" width="18.5234375" customWidth="1"/>
+    <col min="13" max="13" width="13.1015625" customWidth="1"/>
+    <col min="14" max="1025" width="10.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="40" t="s">
+      <c r="A1" s="3"/>
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.899999999999999">
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="42" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.899999999999999">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:8" ht="16.899999999999999">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="48.4">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:8" ht="48.4">
+      <c r="C10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" spans="1:8" ht="64.5">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+      <c r="C14" s="12"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="32.25">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3060,64 +3053,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="3:5" ht="16.899999999999999">
+      <c r="C20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="3:5" ht="16.899999999999999">
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="3:5" ht="16.899999999999999">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="3:5" ht="16.899999999999999">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="39"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="3:5" ht="48.4">
+      <c r="C27" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3142,39 +3135,39 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.1015625" customWidth="1"/>
+    <col min="9" max="9" width="24.89453125" customWidth="1"/>
+    <col min="10" max="10" width="19.89453125" customWidth="1"/>
+    <col min="11" max="11" width="15.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3188,19 +3181,19 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="36" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
@@ -3364,14 +3357,14 @@
       <c r="H14" t="s">
         <v>77</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
         <v>78</v>
-      </c>
-      <c r="J14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3385,16 +3378,16 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3408,16 +3401,16 @@
         <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="J16" t="s">
-        <v>81</v>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="5:11">
@@ -3431,16 +3424,16 @@
         <v>62</v>
       </c>
       <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
         <v>83</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
         <v>84</v>
-      </c>
-      <c r="J17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="5:11">
@@ -3454,16 +3447,16 @@
         <v>62</v>
       </c>
       <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
         <v>86</v>
       </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="5:11">
@@ -3477,16 +3470,16 @@
         <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="5:11">
@@ -3500,16 +3493,16 @@
         <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="5:11">
@@ -3523,16 +3516,16 @@
         <v>62</v>
       </c>
       <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
         <v>91</v>
       </c>
-      <c r="I21" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="5:11">
@@ -3546,16 +3539,16 @@
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="5:11">
@@ -3569,13 +3562,13 @@
         <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s">
         <v>65</v>
@@ -3591,8 +3584,8 @@
       <c r="G24" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="44" t="s">
-        <v>97</v>
+      <c r="H24" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="I24" t="s">
         <v>62</v>
